--- a/DataBase/B版本中英對照.xlsx
+++ b/DataBase/B版本中英對照.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="261">
   <si>
     <t>共用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,6 +1072,18 @@
   </si>
   <si>
     <t>青綠色是這次有新增修改的欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,6 +1764,54 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,12 +1824,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,34 +1842,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,18 +1866,60 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,78 +1928,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2387,48 +2399,48 @@
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="F2" s="93" t="s">
+      <c r="C2" s="97"/>
+      <c r="F2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="J2" s="93" t="s">
+      <c r="G2" s="88"/>
+      <c r="J2" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="M2" s="87" t="s">
+      <c r="K2" s="88"/>
+      <c r="M2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="Q2" s="91" t="s">
+      <c r="N2" s="102"/>
+      <c r="Q2" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="92"/>
+      <c r="R2" s="106"/>
     </row>
     <row r="3" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="F3" s="93" t="s">
+      <c r="C3" s="92"/>
+      <c r="F3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="J3" s="97" t="s">
+      <c r="G3" s="88"/>
+      <c r="J3" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="M3" s="87" t="s">
+      <c r="K3" s="90"/>
+      <c r="M3" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="Q3" s="89" t="s">
+      <c r="N3" s="102"/>
+      <c r="Q3" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="90"/>
+      <c r="R3" s="104"/>
     </row>
     <row r="4" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -2677,11 +2689,11 @@
       <c r="K12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
     </row>
     <row r="13" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="F13" s="1" t="s">
@@ -2696,11 +2708,11 @@
       <c r="K13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="F14" s="9" t="s">
@@ -2731,10 +2743,10 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="94"/>
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
@@ -2758,10 +2770,10 @@
       <c r="U16" s="27"/>
     </row>
     <row r="17" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="94"/>
       <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2780,10 +2792,10 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="82" t="s">
+      <c r="Q17" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="R17" s="82"/>
+      <c r="R17" s="98"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
       <c r="U17" s="30"/>
@@ -2813,8 +2825,8 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
       <c r="U18" s="30"/>
@@ -2902,10 +2914,10 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
-      <c r="Q21" s="82" t="s">
+      <c r="Q21" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="R21" s="82"/>
+      <c r="R21" s="98"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
       <c r="U21" s="30"/>
@@ -2935,8 +2947,8 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
       <c r="U22" s="30"/>
@@ -2983,15 +2995,15 @@
       <c r="K24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="83" t="s">
+      <c r="M24" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
       <c r="T24" s="29"/>
       <c r="U24" s="30"/>
     </row>
@@ -3008,13 +3020,13 @@
       <c r="K25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="84"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
       <c r="T25" s="29"/>
       <c r="U25" s="30"/>
     </row>
@@ -3027,21 +3039,21 @@
       <c r="K26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="84"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
       <c r="T26" s="29"/>
       <c r="U26" s="30"/>
     </row>
     <row r="27" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="92"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="J27" s="1" t="s">
@@ -3061,14 +3073,14 @@
       <c r="U27" s="33"/>
     </row>
     <row r="28" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="F28" s="101" t="s">
+      <c r="C28" s="87"/>
+      <c r="F28" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="102"/>
+      <c r="G28" s="96"/>
       <c r="J28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3272,8 +3284,8 @@
       <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="2:17" ht="34.200000000000003" customHeight="1">
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -3682,14 +3694,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="Q17:R18"/>
     <mergeCell ref="Q21:R22"/>
@@ -3702,6 +3706,14 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M12:Q13"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3718,7 +3730,7 @@
   <dimension ref="B1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1"/>
@@ -3749,60 +3761,61 @@
       <c r="I1" s="15"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="E2" s="103" t="s">
+      <c r="C2" s="97"/>
+      <c r="E2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="K2" s="93" t="s">
+      <c r="I2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="N2" s="127" t="s">
+      <c r="L2" s="88"/>
+      <c r="N2" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="R2" s="129" t="s">
+      <c r="O2" s="116"/>
+      <c r="R2" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="130"/>
+      <c r="S2" s="118"/>
     </row>
     <row r="3" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="E3" s="96" t="s">
+      <c r="C3" s="92"/>
+      <c r="E3" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="93"/>
-      <c r="K3" s="97" t="s">
+      <c r="H3" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="K3" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="N3" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="88"/>
-      <c r="R3" s="89" t="s">
+      <c r="L3" s="90"/>
+      <c r="N3" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" s="102"/>
+      <c r="R3" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="104"/>
     </row>
     <row r="4" spans="2:19" ht="34.200000000000003" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -4244,10 +4257,10 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="82" t="s">
         <v>256</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4303,6 +4316,7 @@
       <c r="S17" s="77"/>
     </row>
     <row r="18" spans="2:21" ht="34.200000000000003" customHeight="1">
+      <c r="B18" s="16"/>
       <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
@@ -4319,10 +4333,10 @@
       <c r="S18" s="77"/>
     </row>
     <row r="19" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="100"/>
+      <c r="C19" s="94"/>
       <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
@@ -4339,10 +4353,10 @@
       <c r="S19" s="77"/>
     </row>
     <row r="20" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B20" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="100"/>
+      <c r="B20" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="94"/>
       <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4400,8 +4414,8 @@
       <c r="H24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
     </row>
     <row r="25" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="B25" s="1" t="s">
@@ -4428,10 +4442,10 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="R26" s="8"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
@@ -4448,12 +4462,12 @@
       <c r="F27" s="8"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="125" t="s">
+      <c r="I27" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
       <c r="R27" s="8"/>
       <c r="S27" s="10"/>
       <c r="T27" s="22"/>
@@ -4466,38 +4480,39 @@
       <c r="C28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="131"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
       <c r="R28" s="8"/>
       <c r="S28" s="10"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
     </row>
     <row r="29" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="90"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="17"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
       <c r="R29" s="8"/>
       <c r="S29" s="10"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
     </row>
     <row r="30" spans="2:21" ht="34.200000000000003" customHeight="1">
+      <c r="B30" s="8"/>
       <c r="E30" s="74" t="s">
         <v>240</v>
       </c>
@@ -4506,18 +4521,18 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="92"/>
       <c r="E31" s="1" t="s">
         <v>102</v>
       </c>
@@ -4531,10 +4546,10 @@
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="87"/>
       <c r="E32" s="6" t="s">
         <v>248</v>
       </c>
@@ -4655,8 +4670,8 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
     </row>
     <row r="40" spans="2:12" ht="34.200000000000003" customHeight="1">
       <c r="E40" s="1" t="s">
@@ -4677,18 +4692,18 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="133"/>
+      <c r="C43" s="109"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="134"/>
+      <c r="C44" s="110"/>
     </row>
     <row r="45" spans="2:12" ht="34.200000000000003" customHeight="1">
       <c r="B45" s="9" t="s">
@@ -4727,20 +4742,20 @@
       <c r="C50" s="68"/>
     </row>
     <row r="51" spans="2:6" ht="34.200000000000003" customHeight="1">
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="133"/>
+      <c r="C51" s="109"/>
     </row>
     <row r="52" spans="2:6" ht="34.200000000000003" customHeight="1">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="134"/>
-      <c r="E52" s="135" t="s">
+      <c r="C52" s="110"/>
+      <c r="E52" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="135" t="s">
+      <c r="F52" s="85" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4751,10 +4766,10 @@
       <c r="C53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="135" t="s">
+      <c r="F53" s="85" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5192,18 +5207,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="I27:L30"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -5216,6 +5219,18 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="I27:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5245,26 +5260,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:15">
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="115" t="s">
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
     </row>
     <row r="4" spans="4:15">
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
     </row>
     <row r="5" spans="4:15" ht="24.6">
       <c r="D5" s="52"/>
@@ -5292,10 +5307,10 @@
       <c r="E7" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="114"/>
+      <c r="G7" s="119"/>
     </row>
     <row r="8" spans="4:15">
       <c r="L8" t="s">
@@ -5462,10 +5477,10 @@
       <c r="E16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="119"/>
     </row>
     <row r="18" spans="4:13">
       <c r="E18" s="48" t="s">
@@ -5652,8 +5667,8 @@
       </c>
     </row>
     <row r="27" spans="4:13" s="21" customFormat="1">
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
@@ -5663,25 +5678,25 @@
       <c r="L27" s="56"/>
     </row>
     <row r="28" spans="4:13" s="21" customFormat="1">
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
     </row>
     <row r="29" spans="4:13" ht="24.6">
       <c r="D29" s="63"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
     </row>
     <row r="30" spans="4:13">
       <c r="D30" s="21"/>
@@ -5708,8 +5723,8 @@
       <c r="M31" s="21"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
@@ -5720,8 +5735,8 @@
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
@@ -5732,8 +5747,8 @@
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
       <c r="F34" s="64"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -5744,8 +5759,8 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
       <c r="F35" s="65"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -5756,8 +5771,8 @@
       <c r="M35" s="21"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -5769,6 +5784,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="D27:E27"/>
@@ -5776,11 +5796,6 @@
     <mergeCell ref="G28:I29"/>
     <mergeCell ref="J28:M29"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5829,58 +5844,58 @@
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="E2" s="103" t="s">
+      <c r="C2" s="97"/>
+      <c r="E2" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="K2" s="93" t="s">
+      <c r="I2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="N2" s="105" t="s">
+      <c r="L2" s="88"/>
+      <c r="N2" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="R2" s="107" t="s">
+      <c r="O2" s="132"/>
+      <c r="R2" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="130"/>
     </row>
     <row r="3" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="E3" s="96" t="s">
+      <c r="C3" s="92"/>
+      <c r="E3" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="K3" s="97" t="s">
+      <c r="I3" s="88"/>
+      <c r="K3" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="N3" s="87" t="s">
+      <c r="L3" s="90"/>
+      <c r="N3" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="R3" s="89" t="s">
+      <c r="O3" s="102"/>
+      <c r="R3" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="104"/>
     </row>
     <row r="4" spans="2:19" ht="34.200000000000003" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -6310,8 +6325,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="E16" s="9" t="s">
         <v>73</v>
       </c>
@@ -6326,8 +6341,8 @@
         <v>47</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="120"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="128"/>
     </row>
     <row r="17" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="E17" s="5" t="s">
@@ -6343,14 +6358,14 @@
       <c r="L17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
     </row>
     <row r="18" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="100"/>
+      <c r="C18" s="94"/>
       <c r="E18" s="1" t="s">
         <v>134</v>
       </c>
@@ -6363,16 +6378,16 @@
       <c r="L18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
     </row>
     <row r="19" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
+      <c r="C19" s="94"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
     </row>
     <row r="20" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="B20" s="2" t="s">
@@ -6381,8 +6396,8 @@
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
     </row>
     <row r="21" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="B21" s="3" t="s">
@@ -6391,8 +6406,8 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
     </row>
     <row r="22" spans="2:21" ht="34.200000000000003" customHeight="1">
       <c r="B22" s="3" t="s">
@@ -6464,10 +6479,10 @@
       <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="E27" s="109" t="s">
+      <c r="E27" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="F27" s="109"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="R27" s="37" t="s">
@@ -6478,10 +6493,10 @@
       <c r="U27" s="38"/>
     </row>
     <row r="28" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="E28" s="110" t="s">
+      <c r="E28" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="111"/>
+      <c r="F28" s="135"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="R28" s="37" t="s">
@@ -6492,10 +6507,10 @@
       <c r="U28" s="38"/>
     </row>
     <row r="29" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="92"/>
       <c r="E29" s="9" t="s">
         <v>167</v>
       </c>
@@ -6512,10 +6527,10 @@
       <c r="U29" s="41"/>
     </row>
     <row r="30" spans="2:21" ht="34.200000000000003" customHeight="1">
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="87"/>
       <c r="E30" s="1" t="s">
         <v>102</v>
       </c>
@@ -6648,26 +6663,26 @@
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
     </row>
     <row r="40" spans="2:12" ht="34.200000000000003" customHeight="1">
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="92"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="96"/>
+      <c r="C42" s="87"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
@@ -6702,10 +6717,10 @@
       <c r="C47" s="68"/>
     </row>
     <row r="48" spans="2:12" ht="34.200000000000003" customHeight="1">
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="92"/>
       <c r="E48" t="s">
         <v>207</v>
       </c>
@@ -6714,10 +6729,10 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="34.200000000000003" customHeight="1">
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="96"/>
+      <c r="C49" s="87"/>
       <c r="E49" t="s">
         <v>209</v>
       </c>
@@ -7165,15 +7180,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="R16:S21"/>
     <mergeCell ref="R2:S2"/>
@@ -7190,6 +7196,15 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
